--- a/data/矿山.xlsx
+++ b/data/矿山.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AC0C85-D3D3-FF40-BA36-7A23AD41E165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A593336D-8F99-F64B-AFA1-FE7DEF040A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -291,7 +291,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -441,25 +441,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -468,7 +468,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
@@ -3779,8 +3779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4341,34 +4341,34 @@
         <v>70</v>
       </c>
       <c r="C13" s="6">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D13" s="6">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E13" s="6">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F13" s="6">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G13" s="6">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H13" s="6">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I13" s="6">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="J13" s="6">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K13" s="6">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L13" s="6">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4381,8 +4381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>

--- a/data/矿山.xlsx
+++ b/data/矿山.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A593336D-8F99-F64B-AFA1-FE7DEF040A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1926338-A979-304D-8590-D69410AD26FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="73">
   <si>
     <t>单位</t>
   </si>
@@ -81,12 +81,6 @@
     <t>百公里能耗</t>
   </si>
   <si>
-    <t>燃料价格</t>
-  </si>
-  <si>
-    <t>元/L</t>
-  </si>
-  <si>
     <t>低温能耗率</t>
   </si>
   <si>
@@ -99,12 +93,6 @@
     <t>L/小时</t>
   </si>
   <si>
-    <t>燃料生命周期排放因子</t>
-  </si>
-  <si>
-    <t>kgCO2/L</t>
-  </si>
-  <si>
     <t>保养费用</t>
   </si>
   <si>
@@ -150,9 +138,6 @@
     <t>车身单位成本</t>
   </si>
   <si>
-    <t>元/kwh</t>
-  </si>
-  <si>
     <t>电池容量</t>
   </si>
   <si>
@@ -162,12 +147,6 @@
     <t>kg/kwh</t>
   </si>
   <si>
-    <t>kWh/小时</t>
-  </si>
-  <si>
-    <t>kgCO2/kWh</t>
-  </si>
-  <si>
     <t>燃料电池系统功率</t>
   </si>
   <si>
@@ -184,12 +163,6 @@
   </si>
   <si>
     <t>元/kg</t>
-  </si>
-  <si>
-    <t>kg/小时</t>
-  </si>
-  <si>
-    <t>kgCO2/kg</t>
   </si>
   <si>
     <t>折现率</t>
@@ -366,7 +339,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -401,15 +374,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -428,7 +392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -468,10 +432,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -752,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+      <selection activeCell="D11" sqref="D11:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -763,7 +724,7 @@
     <col min="1" max="1" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -797,20 +758,8 @@
       <c r="L1" s="3">
         <v>2030</v>
       </c>
-      <c r="M1" s="3">
-        <v>2031</v>
-      </c>
-      <c r="N1" s="3">
-        <v>2032</v>
-      </c>
-      <c r="O1" s="3">
-        <v>2033</v>
-      </c>
-      <c r="P1" s="3">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -847,12 +796,8 @@
       <c r="L2" s="8">
         <v>160583.44570433401</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="1:16">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -889,12 +834,8 @@
       <c r="L3" s="8">
         <v>131839.420229893</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -931,12 +872,8 @@
       <c r="L4" s="8">
         <v>400</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -973,12 +910,8 @@
       <c r="L5" s="8">
         <v>13000</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1015,12 +948,8 @@
       <c r="L6" s="4">
         <v>0</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1067,12 +996,8 @@
         <f t="shared" si="0"/>
         <v>65000</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -1119,12 +1044,8 @@
         <f t="shared" si="1"/>
         <v>357422.86593422701</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="1:16">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
@@ -1161,12 +1082,8 @@
       <c r="L9" s="10">
         <v>63775.382891914</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:16">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1213,12 +1130,8 @@
         <f t="shared" si="2"/>
         <v>421198.248826141</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="1:16">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1226,376 +1139,261 @@
         <v>5</v>
       </c>
       <c r="C11" s="4">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D11" s="4">
-        <v>69.58</v>
+        <f>C11*0.98</f>
+        <v>58.8</v>
       </c>
       <c r="E11" s="4">
-        <v>68.188400000000001</v>
+        <f t="shared" ref="E11:L11" si="3">D11*0.98</f>
+        <v>57.623999999999995</v>
       </c>
       <c r="F11" s="4">
-        <v>66.824631999999994</v>
+        <f t="shared" si="3"/>
+        <v>56.471519999999991</v>
       </c>
       <c r="G11" s="4">
-        <v>65.488139360000005</v>
+        <f t="shared" si="3"/>
+        <v>55.342089599999987</v>
       </c>
       <c r="H11" s="4">
-        <v>64.178376572800005</v>
+        <f t="shared" si="3"/>
+        <v>54.23524780799999</v>
       </c>
       <c r="I11" s="4">
-        <v>62.894809041343997</v>
+        <f t="shared" si="3"/>
+        <v>53.150542851839987</v>
       </c>
       <c r="J11" s="4">
-        <v>61.6369128605171</v>
+        <f t="shared" si="3"/>
+        <v>52.087531994803186</v>
       </c>
       <c r="K11" s="4">
-        <v>60.404174603306799</v>
+        <f t="shared" si="3"/>
+        <v>51.04578135490712</v>
       </c>
       <c r="L11" s="4">
-        <v>59.196091111240598</v>
-      </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:16">
+        <f t="shared" si="3"/>
+        <v>50.024865727808979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="D12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="E12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="F12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="G12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="H12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="I12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="J12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="K12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="L12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="M12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="N12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="O12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="P12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1" t="s">
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-      <c r="I13" s="6">
-        <v>1</v>
-      </c>
-      <c r="J13" s="6">
-        <v>1</v>
-      </c>
-      <c r="K13" s="6">
-        <v>1</v>
-      </c>
-      <c r="L13" s="6">
-        <v>1</v>
-      </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="C13" s="12">
+        <v>6000</v>
+      </c>
+      <c r="D13" s="12">
+        <v>6000</v>
+      </c>
+      <c r="E13" s="12">
+        <v>6000</v>
+      </c>
+      <c r="F13" s="12">
+        <v>6000</v>
+      </c>
+      <c r="G13" s="12">
+        <v>6000</v>
+      </c>
+      <c r="H13" s="12">
+        <v>6000</v>
+      </c>
+      <c r="I13" s="12">
+        <v>6000</v>
+      </c>
+      <c r="J13" s="12">
+        <v>6000</v>
+      </c>
+      <c r="K13" s="12">
+        <v>6000</v>
+      </c>
+      <c r="L13" s="12">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="D14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="E14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="F14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="G14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="H14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="I14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="J14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="K14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="L14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="C14" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" ref="D14:L14" si="4">C14</f>
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="D15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="E15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="F15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="G15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="H15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="I15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="J15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="K15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="L15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="M15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="N15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="O15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="P15" s="12">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="C15" s="4">
+        <v>5000</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" ref="D15:L15" si="5">C15</f>
+        <v>5000</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="4">
-        <v>0.2</v>
+        <v>2000</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" ref="D16:L16" si="3">C16</f>
-        <v>0.2</v>
+        <f t="shared" ref="D16:L16" si="6">C16</f>
+        <v>2000</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
+        <f t="shared" si="6"/>
+        <v>2000</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
+        <f t="shared" si="6"/>
+        <v>2000</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
+        <f t="shared" si="6"/>
+        <v>2000</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
+        <f t="shared" si="6"/>
+        <v>2000</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
+        <f t="shared" si="6"/>
+        <v>2000</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
+        <f t="shared" si="6"/>
+        <v>2000</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
+        <f t="shared" si="6"/>
+        <v>2000</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="4">
-        <v>5000</v>
-      </c>
-      <c r="D17" s="5">
-        <f t="shared" ref="D17:L17" si="4">C17</f>
-        <v>5000</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="G17" s="5">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="H17" s="5">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="I17" s="5">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="J17" s="5">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="K17" s="5">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="L17" s="5">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="4">
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
-      <c r="D18" s="5">
-        <f t="shared" ref="D18:L18" si="5">C18</f>
-        <v>2000</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="G18" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="H18" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="J18" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="K18" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="L18" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1605,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13:P13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1616,7 +1414,7 @@
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:12">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1651,25 +1449,13 @@
       <c r="L1" s="3">
         <v>2030</v>
       </c>
-      <c r="M1" s="3">
-        <v>2031</v>
-      </c>
-      <c r="N1" s="3">
-        <v>2032</v>
-      </c>
-      <c r="O1" s="3">
-        <v>2033</v>
-      </c>
-      <c r="P1" s="3">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" s="8">
         <v>420</v>
@@ -1701,17 +1487,13 @@
       <c r="L2" s="8">
         <v>420</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="1:16">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" s="8">
         <v>900</v>
@@ -1743,17 +1525,13 @@
       <c r="L3" s="8">
         <v>433.90523863231101</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" s="8">
         <v>200</v>
@@ -1785,17 +1563,13 @@
       <c r="L4" s="8">
         <v>200</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C5" s="8">
         <v>1000</v>
@@ -1827,17 +1601,13 @@
       <c r="L5" s="8">
         <v>869.20871515059002</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" s="8">
         <v>2</v>
@@ -1869,12 +1639,8 @@
       <c r="L6" s="8">
         <v>2</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1911,14 +1677,10 @@
       <c r="L7" s="8">
         <v>13000</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>2</v>
@@ -1953,12 +1715,8 @@
       <c r="L8" s="8">
         <v>5</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="1:16">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -2005,12 +1763,8 @@
         <f t="shared" si="0"/>
         <v>594923.68628580659</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:16">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -2047,12 +1801,8 @@
       <c r="L10" s="10">
         <v>56464.079025541701</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="1:16">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -2099,505 +1849,344 @@
         <f t="shared" si="1"/>
         <v>651387.76531134825</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:16">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D12" s="4">
-        <v>196</v>
+        <f>C12*0.98</f>
+        <v>186.2</v>
       </c>
       <c r="E12" s="4">
-        <v>192.08</v>
+        <f t="shared" ref="E12:L12" si="2">D12*0.98</f>
+        <v>182.476</v>
       </c>
       <c r="F12" s="4">
-        <v>188.23840000000001</v>
+        <f t="shared" si="2"/>
+        <v>178.82648</v>
       </c>
       <c r="G12" s="4">
-        <v>184.47363200000001</v>
+        <f t="shared" si="2"/>
+        <v>175.24995039999999</v>
       </c>
       <c r="H12" s="4">
-        <v>180.78415935999999</v>
+        <f t="shared" si="2"/>
+        <v>171.74495139199999</v>
       </c>
       <c r="I12" s="4">
-        <v>177.16847617280001</v>
+        <f t="shared" si="2"/>
+        <v>168.31005236415999</v>
       </c>
       <c r="J12" s="4">
-        <v>173.62510664934399</v>
+        <f t="shared" si="2"/>
+        <v>164.94385131687679</v>
       </c>
       <c r="K12" s="4">
-        <v>170.152604516357</v>
+        <f t="shared" si="2"/>
+        <v>161.64497429053924</v>
       </c>
       <c r="L12" s="4">
-        <v>166.74955242602999</v>
-      </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1" t="s">
+        <f t="shared" si="2"/>
+        <v>158.41207480472846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="8">
+        <v>420</v>
+      </c>
+      <c r="D13" s="8">
+        <v>420</v>
+      </c>
+      <c r="E13" s="8">
+        <v>420</v>
+      </c>
+      <c r="F13" s="8">
+        <v>420</v>
+      </c>
+      <c r="G13" s="8">
+        <v>420</v>
+      </c>
+      <c r="H13" s="8">
+        <v>420</v>
+      </c>
+      <c r="I13" s="8">
+        <v>420</v>
+      </c>
+      <c r="J13" s="8">
+        <v>420</v>
+      </c>
+      <c r="K13" s="8">
+        <v>420</v>
+      </c>
+      <c r="L13" s="8">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="4">
+        <v>6.2111801242236</v>
+      </c>
+      <c r="D14" s="4">
+        <v>6.1490683229813703</v>
+      </c>
+      <c r="E14" s="4">
+        <v>6.0881987577639798</v>
+      </c>
+      <c r="F14" s="4">
+        <v>6.02853416149068</v>
+      </c>
+      <c r="G14" s="4">
+        <v>5.9700387577639704</v>
+      </c>
+      <c r="H14" s="4">
+        <v>5.9126781863354001</v>
+      </c>
+      <c r="I14" s="4">
+        <v>5.85641943304348</v>
+      </c>
+      <c r="J14" s="4">
+        <v>5.80123076391056</v>
+      </c>
+      <c r="K14" s="4">
+        <v>5.7470816631107597</v>
+      </c>
+      <c r="L14" s="4">
+        <v>5.69394277454363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2608.6956521739098</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2582.6086956521799</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2557.04347826087</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2531.98434782609</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2507.4162782608701</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2483.3248382608699</v>
+      </c>
+      <c r="I15" s="4">
+        <v>2459.6961618782602</v>
+      </c>
+      <c r="J15" s="4">
+        <v>2436.51692084244</v>
+      </c>
+      <c r="K15" s="4">
+        <v>2413.7742985065202</v>
+      </c>
+      <c r="L15" s="4">
+        <v>2391.4559653083202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="M13" s="6">
-        <f>L13</f>
-        <v>0.9</v>
-      </c>
-      <c r="N13" s="6">
-        <f>M13</f>
-        <v>0.9</v>
-      </c>
-      <c r="O13" s="6">
-        <f>N13</f>
-        <v>0.9</v>
-      </c>
-      <c r="P13" s="6">
-        <f>O13</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="8">
-        <v>420</v>
-      </c>
-      <c r="D14" s="8">
-        <v>420</v>
-      </c>
-      <c r="E14" s="8">
-        <v>420</v>
-      </c>
-      <c r="F14" s="8">
-        <v>420</v>
-      </c>
-      <c r="G14" s="8">
-        <v>420</v>
-      </c>
-      <c r="H14" s="8">
-        <v>420</v>
-      </c>
-      <c r="I14" s="8">
-        <v>420</v>
-      </c>
-      <c r="J14" s="8">
-        <v>420</v>
-      </c>
-      <c r="K14" s="8">
-        <v>420</v>
-      </c>
-      <c r="L14" s="8">
-        <v>420</v>
-      </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="4">
-        <v>6.2111801242236</v>
-      </c>
-      <c r="D15" s="4">
-        <v>6.1490683229813703</v>
-      </c>
-      <c r="E15" s="4">
-        <v>6.0881987577639798</v>
-      </c>
-      <c r="F15" s="4">
-        <v>6.02853416149068</v>
-      </c>
-      <c r="G15" s="4">
-        <v>5.9700387577639704</v>
-      </c>
-      <c r="H15" s="4">
-        <v>5.9126781863354001</v>
-      </c>
-      <c r="I15" s="4">
-        <v>5.85641943304348</v>
-      </c>
-      <c r="J15" s="4">
-        <v>5.80123076391056</v>
-      </c>
-      <c r="K15" s="4">
-        <v>5.7470816631107597</v>
-      </c>
-      <c r="L15" s="4">
-        <v>5.69394277454363</v>
-      </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2608.6956521739098</v>
-      </c>
-      <c r="D16" s="4">
-        <v>2582.6086956521799</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2557.04347826087</v>
-      </c>
-      <c r="F16" s="4">
-        <v>2531.98434782609</v>
-      </c>
-      <c r="G16" s="4">
-        <v>2507.4162782608701</v>
-      </c>
-      <c r="H16" s="4">
-        <v>2483.3248382608699</v>
-      </c>
-      <c r="I16" s="4">
-        <v>2459.6961618782602</v>
-      </c>
-      <c r="J16" s="4">
-        <v>2436.51692084244</v>
-      </c>
-      <c r="K16" s="4">
-        <v>2413.7742985065202</v>
-      </c>
-      <c r="L16" s="4">
-        <v>2391.4559653083202</v>
-      </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="6">
-        <v>2</v>
-      </c>
-      <c r="D17" s="6">
-        <v>2</v>
-      </c>
-      <c r="E17" s="6">
-        <v>2</v>
-      </c>
-      <c r="F17" s="6">
-        <v>2</v>
-      </c>
-      <c r="G17" s="6">
-        <v>2</v>
-      </c>
-      <c r="H17" s="6">
-        <v>2</v>
-      </c>
-      <c r="I17" s="6">
-        <v>2</v>
-      </c>
-      <c r="J17" s="6">
-        <v>2</v>
-      </c>
-      <c r="K17" s="6">
-        <v>2</v>
-      </c>
-      <c r="L17" s="6">
-        <v>2</v>
-      </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="B16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2</v>
+      </c>
+      <c r="G16" s="6">
+        <v>2</v>
+      </c>
+      <c r="H16" s="6">
+        <v>2</v>
+      </c>
+      <c r="I16" s="6">
+        <v>2</v>
+      </c>
+      <c r="J16" s="6">
+        <v>2</v>
+      </c>
+      <c r="K16" s="6">
+        <v>2</v>
+      </c>
+      <c r="L16" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" ref="D17:L17" si="3">C17</f>
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="12">
-        <v>250</v>
-      </c>
-      <c r="D18" s="12">
-        <v>250</v>
-      </c>
-      <c r="E18" s="12">
-        <v>250</v>
-      </c>
-      <c r="F18" s="12">
-        <v>250</v>
-      </c>
-      <c r="G18" s="12">
-        <v>250</v>
-      </c>
-      <c r="H18" s="12">
-        <v>250</v>
-      </c>
-      <c r="I18" s="12">
-        <v>250</v>
-      </c>
-      <c r="J18" s="12">
-        <v>250</v>
-      </c>
-      <c r="K18" s="12">
-        <v>250</v>
-      </c>
-      <c r="L18" s="12">
-        <v>250</v>
-      </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:16">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4">
+        <v>5000</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" ref="D18:L18" si="4">C18</f>
+        <v>5000</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="13">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="D19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="F19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="I19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="J19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="K19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="L19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="M19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="N19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="O19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="P19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="D20" s="5">
-        <f t="shared" ref="D20:L20" si="2">C20</f>
-        <v>0.2</v>
-      </c>
-      <c r="E20" s="5">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="G20" s="5">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="H20" s="5">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="I20" s="5">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="J20" s="5">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="K20" s="5">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="L20" s="5">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="4">
-        <v>5000</v>
-      </c>
-      <c r="D21" s="5">
-        <f t="shared" ref="D21:L21" si="3">C21</f>
-        <v>5000</v>
-      </c>
-      <c r="E21" s="5">
-        <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="G21" s="5">
-        <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="H21" s="5">
-        <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="I21" s="5">
-        <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="J21" s="5">
-        <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="K21" s="5">
-        <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="L21" s="5">
-        <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4">
         <v>2000</v>
       </c>
-      <c r="D22" s="5">
-        <f t="shared" ref="D22:L22" si="4">C22</f>
+      <c r="D19" s="5">
+        <f t="shared" ref="D19:L19" si="5">C19</f>
         <v>2000</v>
       </c>
-      <c r="E22" s="5">
-        <f t="shared" si="4"/>
+      <c r="E19" s="5">
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="F22" s="5">
-        <f t="shared" si="4"/>
+      <c r="F19" s="5">
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" si="4"/>
+      <c r="G19" s="5">
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="H22" s="5">
-        <f t="shared" si="4"/>
+      <c r="H19" s="5">
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="I22" s="5">
-        <f t="shared" si="4"/>
+      <c r="I19" s="5">
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="J22" s="5">
-        <f t="shared" si="4"/>
+      <c r="J19" s="5">
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="K22" s="5">
-        <f t="shared" si="4"/>
+      <c r="K19" s="5">
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="L22" s="5">
-        <f t="shared" si="4"/>
+      <c r="L19" s="5">
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
     </row>
@@ -2609,10 +2198,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:P17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2620,7 +2209,7 @@
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:12">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2655,25 +2244,13 @@
       <c r="L1" s="3">
         <v>2030</v>
       </c>
-      <c r="M1" s="3">
-        <v>2031</v>
-      </c>
-      <c r="N1" s="3">
-        <v>2032</v>
-      </c>
-      <c r="O1" s="3">
-        <v>2033</v>
-      </c>
-      <c r="P1" s="3">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="8">
         <v>110</v>
@@ -2705,17 +2282,13 @@
       <c r="L2" s="8">
         <v>110</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="1:16">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C3" s="8">
         <v>4500</v>
@@ -2747,17 +2320,13 @@
       <c r="L3" s="8">
         <v>639.95709350887205</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" s="8">
         <v>100</v>
@@ -2789,17 +2358,13 @@
       <c r="L4" s="8">
         <v>100</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C5" s="8">
         <v>900</v>
@@ -2831,17 +2396,13 @@
       <c r="L5" s="8">
         <v>433.90523863231101</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" s="8">
         <v>200</v>
@@ -2873,17 +2434,13 @@
       <c r="L6" s="8">
         <v>200</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" s="8">
         <v>1000</v>
@@ -2915,17 +2472,13 @@
       <c r="L7" s="8">
         <v>869.20871515059002</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8" s="8">
         <v>2</v>
@@ -2957,12 +2510,8 @@
       <c r="L8" s="8">
         <v>2</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="1:16">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -2999,17 +2548,13 @@
       <c r="L9" s="8">
         <v>50</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:16">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C10" s="8">
         <v>4900</v>
@@ -3041,12 +2586,8 @@
       <c r="L10" s="8">
         <v>991.98582317815305</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="1:16">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -3083,17 +2624,13 @@
       <c r="L11" s="8">
         <v>13000</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:16">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C12" s="8">
         <v>5</v>
@@ -3125,24 +2662,8 @@
       <c r="L12" s="8">
         <v>5</v>
       </c>
-      <c r="M12" s="4">
-        <f>L12</f>
-        <v>5</v>
-      </c>
-      <c r="N12" s="4">
-        <f t="shared" ref="N12:P12" si="0">M12</f>
-        <v>5</v>
-      </c>
-      <c r="O12" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="P12" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -3154,47 +2675,43 @@
         <v>1295000</v>
       </c>
       <c r="D13" s="10">
-        <f t="shared" ref="D13:L13" si="1">D2*D3+D4*D5+D6*D7*D8+D9*D10+D11*D12</f>
+        <f t="shared" ref="D13:L13" si="0">D2*D3+D4*D5+D6*D7*D8+D9*D10+D11*D12</f>
         <v>943493.25018065935</v>
       </c>
       <c r="E13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>859434.31934236817</v>
       </c>
       <c r="F13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>824697.35028962535</v>
       </c>
       <c r="G13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>796551.36044078064</v>
       </c>
       <c r="H13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>666949.92294671037</v>
       </c>
       <c r="I13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>619727.56557581923</v>
       </c>
       <c r="J13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>595328.97672158165</v>
       </c>
       <c r="K13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>584836.92689352424</v>
       </c>
       <c r="L13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>576068.58136835066</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="1:16">
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
@@ -3231,12 +2748,8 @@
       <c r="L14" s="10">
         <v>33930.317658677297</v>
       </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-    </row>
-    <row r="15" spans="1:16">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -3244,51 +2757,47 @@
         <v>2</v>
       </c>
       <c r="C15" s="10">
-        <f t="shared" ref="C15:L15" si="2">C14+C13</f>
+        <f t="shared" ref="C15:L15" si="1">C14+C13</f>
         <v>1356296.0209078796</v>
       </c>
       <c r="D15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>991625.63790463796</v>
       </c>
       <c r="E15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>904285.91524076147</v>
       </c>
       <c r="F15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>867975.37138324534</v>
       </c>
       <c r="G15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>838551.41317518696</v>
       </c>
       <c r="H15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>704362.52948108932</v>
       </c>
       <c r="I15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>655435.40389893495</v>
       </c>
       <c r="J15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>630088.25243378361</v>
       </c>
       <c r="K15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>619133.43855046108</v>
       </c>
       <c r="L15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>609998.899027028</v>
       </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-    </row>
-    <row r="16" spans="1:16">
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -3296,475 +2805,334 @@
         <v>7</v>
       </c>
       <c r="C16" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" s="4">
-        <v>9.8000000000000007</v>
+        <f>C16*0.98</f>
+        <v>10.78</v>
       </c>
       <c r="E16" s="4">
-        <v>9.6039999999999992</v>
+        <f t="shared" ref="E16:L16" si="2">D16*0.98</f>
+        <v>10.564399999999999</v>
       </c>
       <c r="F16" s="4">
-        <v>9.4119200000000003</v>
+        <f t="shared" si="2"/>
+        <v>10.353111999999999</v>
       </c>
       <c r="G16" s="4">
-        <v>9.2236816000000008</v>
+        <f t="shared" si="2"/>
+        <v>10.146049759999999</v>
       </c>
       <c r="H16" s="4">
-        <v>9.0392079679999995</v>
+        <f t="shared" si="2"/>
+        <v>9.9431287647999991</v>
       </c>
       <c r="I16" s="4">
-        <v>8.8584238086399996</v>
+        <f t="shared" si="2"/>
+        <v>9.7442661895039997</v>
       </c>
       <c r="J16" s="4">
-        <v>8.6812553324672006</v>
+        <f t="shared" si="2"/>
+        <v>9.5493808657139194</v>
       </c>
       <c r="K16" s="4">
-        <v>8.5076302258178593</v>
+        <f t="shared" si="2"/>
+        <v>9.3583932483996417</v>
       </c>
       <c r="L16" s="4">
-        <v>8.3374776213015007</v>
-      </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="1" t="s">
+        <f t="shared" si="2"/>
+        <v>9.1712253834316488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="4">
+        <v>100</v>
+      </c>
+      <c r="D17" s="4">
+        <v>100</v>
+      </c>
+      <c r="E17" s="4">
+        <v>100</v>
+      </c>
+      <c r="F17" s="4">
+        <v>100</v>
+      </c>
+      <c r="G17" s="4">
+        <v>100</v>
+      </c>
+      <c r="H17" s="4">
+        <v>100</v>
+      </c>
+      <c r="I17" s="4">
+        <v>100</v>
+      </c>
+      <c r="J17" s="4">
+        <v>100</v>
+      </c>
+      <c r="K17" s="4">
+        <v>100</v>
+      </c>
+      <c r="L17" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="4">
+        <v>6.2111801242236</v>
+      </c>
+      <c r="D18" s="4">
+        <v>6.1490683229813703</v>
+      </c>
+      <c r="E18" s="4">
+        <v>6.0881987577639798</v>
+      </c>
+      <c r="F18" s="4">
+        <v>6.02853416149068</v>
+      </c>
+      <c r="G18" s="4">
+        <v>5.9700387577639704</v>
+      </c>
+      <c r="H18" s="4">
+        <v>5.9126781863354001</v>
+      </c>
+      <c r="I18" s="4">
+        <v>5.85641943304348</v>
+      </c>
+      <c r="J18" s="4">
+        <v>5.80123076391056</v>
+      </c>
+      <c r="K18" s="4">
+        <v>5.7470816631107597</v>
+      </c>
+      <c r="L18" s="4">
+        <v>5.69394277454363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4">
+        <v>621.11801242236004</v>
+      </c>
+      <c r="D19" s="4">
+        <v>614.90683229813703</v>
+      </c>
+      <c r="E19" s="4">
+        <v>608.81987577639802</v>
+      </c>
+      <c r="F19" s="4">
+        <v>602.85341614906804</v>
+      </c>
+      <c r="G19" s="4">
+        <v>597.00387577639697</v>
+      </c>
+      <c r="H19" s="4">
+        <v>591.26781863353995</v>
+      </c>
+      <c r="I19" s="4">
+        <v>585.64194330434805</v>
+      </c>
+      <c r="J19" s="4">
+        <v>580.12307639105597</v>
+      </c>
+      <c r="K19" s="4">
+        <v>574.70816631107596</v>
+      </c>
+      <c r="L19" s="4">
+        <v>569.39427745436296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="4">
-        <v>50</v>
-      </c>
-      <c r="D17" s="4">
-        <v>49</v>
-      </c>
-      <c r="E17" s="4">
-        <v>48</v>
-      </c>
-      <c r="F17" s="4">
-        <v>47</v>
-      </c>
-      <c r="G17" s="4">
-        <v>46</v>
-      </c>
-      <c r="H17" s="4">
-        <v>45</v>
-      </c>
-      <c r="I17" s="4">
-        <v>44</v>
-      </c>
-      <c r="J17" s="4">
-        <v>43</v>
-      </c>
-      <c r="K17" s="4">
-        <v>42</v>
-      </c>
-      <c r="L17" s="4">
-        <v>41</v>
-      </c>
-      <c r="M17" s="5">
-        <f>L17-1</f>
-        <v>40</v>
-      </c>
-      <c r="N17" s="5">
-        <f>M17-1</f>
-        <v>39</v>
-      </c>
-      <c r="O17" s="5">
-        <f>N17-1</f>
-        <v>38</v>
-      </c>
-      <c r="P17" s="5">
-        <f>O17-1</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="4">
-        <v>100</v>
-      </c>
-      <c r="D18" s="4">
-        <v>100</v>
-      </c>
-      <c r="E18" s="4">
-        <v>100</v>
-      </c>
-      <c r="F18" s="4">
-        <v>100</v>
-      </c>
-      <c r="G18" s="4">
-        <v>100</v>
-      </c>
-      <c r="H18" s="4">
-        <v>100</v>
-      </c>
-      <c r="I18" s="4">
-        <v>100</v>
-      </c>
-      <c r="J18" s="4">
-        <v>100</v>
-      </c>
-      <c r="K18" s="4">
-        <v>100</v>
-      </c>
-      <c r="L18" s="4">
-        <v>100</v>
-      </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="4">
-        <v>6.2111801242236</v>
-      </c>
-      <c r="D19" s="4">
-        <v>6.1490683229813703</v>
-      </c>
-      <c r="E19" s="4">
-        <v>6.0881987577639798</v>
-      </c>
-      <c r="F19" s="4">
-        <v>6.02853416149068</v>
-      </c>
-      <c r="G19" s="4">
-        <v>5.9700387577639704</v>
-      </c>
-      <c r="H19" s="4">
-        <v>5.9126781863354001</v>
-      </c>
-      <c r="I19" s="4">
-        <v>5.85641943304348</v>
-      </c>
-      <c r="J19" s="4">
-        <v>5.80123076391056</v>
-      </c>
-      <c r="K19" s="4">
-        <v>5.7470816631107597</v>
-      </c>
-      <c r="L19" s="4">
-        <v>5.69394277454363</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="4">
-        <v>621.11801242236004</v>
-      </c>
-      <c r="D20" s="4">
-        <v>614.90683229813703</v>
-      </c>
-      <c r="E20" s="4">
-        <v>608.81987577639802</v>
-      </c>
-      <c r="F20" s="4">
-        <v>602.85341614906804</v>
-      </c>
-      <c r="G20" s="4">
-        <v>597.00387577639697</v>
-      </c>
-      <c r="H20" s="4">
-        <v>591.26781863353995</v>
-      </c>
-      <c r="I20" s="4">
-        <v>585.64194330434805</v>
-      </c>
-      <c r="J20" s="4">
-        <v>580.12307639105597</v>
-      </c>
-      <c r="K20" s="4">
-        <v>574.70816631107596</v>
-      </c>
-      <c r="L20" s="4">
-        <v>569.39427745436296</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="B20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L20" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F21" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G21" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H21" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I21" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J21" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K21" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L21" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="12">
-        <v>500</v>
-      </c>
-      <c r="D22" s="12">
-        <v>500</v>
-      </c>
-      <c r="E22" s="12">
-        <v>500</v>
-      </c>
-      <c r="F22" s="12">
-        <v>500</v>
-      </c>
-      <c r="G22" s="12">
-        <v>500</v>
-      </c>
-      <c r="H22" s="12">
-        <v>500</v>
-      </c>
-      <c r="I22" s="12">
-        <v>500</v>
-      </c>
-      <c r="J22" s="12">
-        <v>500</v>
-      </c>
-      <c r="K22" s="12">
-        <v>500</v>
-      </c>
-      <c r="L22" s="12">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="E23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="I23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="J23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="K23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="L23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="N23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="P23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4">
         <v>0.2</v>
       </c>
-      <c r="D24" s="5">
-        <f t="shared" ref="D24:L24" si="3">C24</f>
+      <c r="D21" s="5">
+        <f t="shared" ref="D21:L21" si="3">C21</f>
         <v>0.2</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E21" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F21" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G21" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H21" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I21" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J21" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K21" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L21" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="4">
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4">
         <v>5000</v>
       </c>
-      <c r="D25" s="5">
-        <f t="shared" ref="D25:L25" si="4">C25</f>
+      <c r="D22" s="5">
+        <f t="shared" ref="D22:L22" si="4">C22</f>
         <v>5000</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E22" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F22" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G22" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H22" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I22" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J22" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K22" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L22" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="4">
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4">
         <v>2000</v>
       </c>
-      <c r="D26" s="5">
-        <f t="shared" ref="D26:L26" si="5">C26</f>
+      <c r="D23" s="5">
+        <f t="shared" ref="D23:L23" si="5">C23</f>
         <v>2000</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E23" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F23" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G23" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H23" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I23" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J23" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K23" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L23" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
@@ -3779,8 +3147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3826,10 +3194,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4">
         <v>0.06</v>
@@ -3873,10 +3241,10 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C3" s="4">
         <v>3</v>
@@ -3920,10 +3288,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4">
         <v>0.8</v>
@@ -3967,10 +3335,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C5" s="4">
         <f>C6*8</f>
@@ -4015,10 +3383,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -4062,10 +3430,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4">
         <v>10000</v>
@@ -4109,10 +3477,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C8" s="4">
         <v>40</v>
@@ -4156,10 +3524,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -4203,10 +3571,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4">
         <v>0.15</v>
@@ -4250,10 +3618,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C11" s="6">
         <v>50</v>
@@ -4297,10 +3665,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C12" s="6">
         <v>50</v>
@@ -4335,10 +3703,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C13" s="6">
         <v>80</v>
@@ -4394,33 +3762,33 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B2">
         <v>35</v>
@@ -4437,12 +3805,12 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="15">
+        <v>69</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="14">
         <v>1</v>
       </c>
     </row>

--- a/data/矿山.xlsx
+++ b/data/矿山.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1926338-A979-304D-8590-D69410AD26FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F2A176-779C-6241-8BB9-0155C6799C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1406,7 +1406,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1858,43 +1858,43 @@
         <v>23</v>
       </c>
       <c r="C12" s="4">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="D12" s="4">
         <f>C12*0.98</f>
-        <v>186.2</v>
+        <v>294</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" ref="E12:L12" si="2">D12*0.98</f>
-        <v>182.476</v>
+        <v>288.12</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="2"/>
-        <v>178.82648</v>
+        <v>282.35759999999999</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="2"/>
-        <v>175.24995039999999</v>
+        <v>276.71044799999999</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="2"/>
-        <v>171.74495139199999</v>
+        <v>271.17623903999998</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="2"/>
-        <v>168.31005236415999</v>
+        <v>265.75271425919999</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="2"/>
-        <v>164.94385131687679</v>
+        <v>260.43765997401596</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" si="2"/>
-        <v>161.64497429053924</v>
+        <v>255.22890677453563</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="2"/>
-        <v>158.41207480472846</v>
+        <v>250.1243286390449</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2201,7 +2201,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="C17" sqref="A1:L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2805,43 +2805,43 @@
         <v>7</v>
       </c>
       <c r="C16" s="4">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D16" s="4">
         <f>C16*0.98</f>
-        <v>10.78</v>
+        <v>17.64</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" ref="E16:L16" si="2">D16*0.98</f>
-        <v>10.564399999999999</v>
+        <v>17.287199999999999</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="2"/>
-        <v>10.353111999999999</v>
+        <v>16.941455999999999</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="2"/>
-        <v>10.146049759999999</v>
+        <v>16.602626879999999</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="2"/>
-        <v>9.9431287647999991</v>
+        <v>16.2705743424</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>9.7442661895039997</v>
+        <v>15.945162855551999</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="2"/>
-        <v>9.5493808657139194</v>
+        <v>15.626259598440958</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="2"/>
-        <v>9.3583932483996417</v>
+        <v>15.31373440647214</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="2"/>
-        <v>9.1712253834316488</v>
+        <v>15.007459718342696</v>
       </c>
     </row>
     <row r="17" spans="1:12">

--- a/data/矿山.xlsx
+++ b/data/矿山.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F2A176-779C-6241-8BB9-0155C6799C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C801D83-BB7D-3045-AEC6-D9533F5EBDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4560" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -716,7 +716,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:L11"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1139,43 +1139,43 @@
         <v>5</v>
       </c>
       <c r="C11" s="4">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D11" s="4">
         <f>C11*0.98</f>
-        <v>58.8</v>
+        <v>53.9</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" ref="E11:L11" si="3">D11*0.98</f>
-        <v>57.623999999999995</v>
+        <v>52.821999999999996</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="3"/>
-        <v>56.471519999999991</v>
+        <v>51.765559999999994</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="3"/>
-        <v>55.342089599999987</v>
+        <v>50.730248799999991</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="3"/>
-        <v>54.23524780799999</v>
+        <v>49.71564382399999</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="3"/>
-        <v>53.150542851839987</v>
+        <v>48.721330947519988</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="3"/>
-        <v>52.087531994803186</v>
+        <v>47.746904328569585</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="3"/>
-        <v>51.04578135490712</v>
+        <v>46.791966241998189</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="3"/>
-        <v>50.024865727808979</v>
+        <v>45.856126917158221</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1858,43 +1858,43 @@
         <v>23</v>
       </c>
       <c r="C12" s="4">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="D12" s="4">
         <f>C12*0.98</f>
-        <v>294</v>
+        <v>215.6</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" ref="E12:L12" si="2">D12*0.98</f>
-        <v>288.12</v>
+        <v>211.28799999999998</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="2"/>
-        <v>282.35759999999999</v>
+        <v>207.06223999999997</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="2"/>
-        <v>276.71044799999999</v>
+        <v>202.92099519999996</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="2"/>
-        <v>271.17623903999998</v>
+        <v>198.86257529599996</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="2"/>
-        <v>265.75271425919999</v>
+        <v>194.88532379007995</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="2"/>
-        <v>260.43765997401596</v>
+        <v>190.98761731427834</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" si="2"/>
-        <v>255.22890677453563</v>
+        <v>187.16786496799276</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="2"/>
-        <v>250.1243286390449</v>
+        <v>183.42450766863288</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2201,7 +2201,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="A1:L23"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2805,43 +2805,43 @@
         <v>7</v>
       </c>
       <c r="C16" s="4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D16" s="4">
         <f>C16*0.98</f>
-        <v>17.64</v>
+        <v>12.74</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" ref="E16:L16" si="2">D16*0.98</f>
-        <v>17.287199999999999</v>
+        <v>12.485200000000001</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="2"/>
-        <v>16.941455999999999</v>
+        <v>12.235496000000001</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="2"/>
-        <v>16.602626879999999</v>
+        <v>11.990786080000001</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="2"/>
-        <v>16.2705743424</v>
+        <v>11.750970358400002</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>15.945162855551999</v>
+        <v>11.515950951232002</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="2"/>
-        <v>15.626259598440958</v>
+        <v>11.285631932207362</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="2"/>
-        <v>15.31373440647214</v>
+        <v>11.059919293563215</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="2"/>
-        <v>15.007459718342696</v>
+        <v>10.83872090769195</v>
       </c>
     </row>
     <row r="17" spans="1:12">
